--- a/resource/staticfile/template.xlsx
+++ b/resource/staticfile/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/horizon/Documents/workspace/github/GoFlyAdmin/resource/staticfile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/horizon/Documents/workspace/github/admin/resource/staticfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F3A93A-AD17-DF47-9A16-2F144A5FF483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E56B27C-8C25-394C-BC48-2BBCF70795F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="平台化" sheetId="2" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>账号昵称</t>
   </si>
   <si>
-    <t>粉丝数（万）</t>
-  </si>
-  <si>
     <t>发布链接</t>
   </si>
   <si>
@@ -119,6 +116,10 @@
   </si>
   <si>
     <t>CSJAITANGMEI</t>
+  </si>
+  <si>
+    <t>粉丝数（个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -126,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +139,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -146,51 +168,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="14"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="14"/>
       <color rgb="FF0563C1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -257,78 +245,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,145 +589,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12" style="22" customWidth="1"/>
-    <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="14"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
-    <col min="18" max="18" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12" style="20" customWidth="1"/>
+    <col min="7" max="7" width="23" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10" style="21" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9" style="8"/>
+    <col min="12" max="12" width="9" style="22"/>
+    <col min="13" max="13" width="9" style="8"/>
+    <col min="14" max="14" width="16.6640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9" style="8"/>
+    <col min="16" max="16" width="10.33203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="38.5" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:18" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="21">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="16">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="11">
+        <v>45430</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="19">
-        <v>45430</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="13">
+        <v>2200000</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12">
-        <v>220</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="I2" s="12">
         <v>5000</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="12">
         <f t="shared" ref="J2" si="0">I2*0.85</f>
         <v>4250</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="15">
         <v>0.06</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="16">
         <v>0.85</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
